--- a/notifications.xlsx
+++ b/notifications.xlsx
@@ -13,13 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
-    <t>پیام</t>
-  </si>
-  <si>
-    <t>زمان</t>
-  </si>
-  <si>
-    <t>مقصد</t>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>When</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
   <si>
     <t>درسای جدید برات باز شده. فرصت یادگیری رو از دست نده:)</t>
@@ -357,90 +357,90 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/notifications.xlsx
+++ b/notifications.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
-  <si>
-    <t>Message</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+  <si>
+    <t>Title</t>
   </si>
   <si>
     <t>When</t>
@@ -22,6 +22,9 @@
     <t>URL</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>درسای جدید برات باز شده. فرصت یادگیری رو از دست نده:)</t>
   </si>
   <si>
@@ -31,6 +34,9 @@
     <t>/speaking/</t>
   </si>
   <si>
+    <t>Lesson Added</t>
+  </si>
+  <si>
     <t>تصحیح و نکات مربوط به درسی که جواب دادی اومده... .</t>
   </si>
   <si>
@@ -40,12 +46,18 @@
     <t>/{type}/{id}/</t>
   </si>
   <si>
+    <t>Lesson Result Ready</t>
+  </si>
+  <si>
     <t>درستو قبل از حذف شدن جواب بده. فقط ده دقیقه زمان میبره.</t>
   </si>
   <si>
     <t>پایان روز دوم از مهلت پاسخ به درس</t>
   </si>
   <si>
+    <t>Lesson Rejecting</t>
+  </si>
+  <si>
     <t>چالش جدید داری. بهترین سعی خودت رو نشون بده</t>
   </si>
   <si>
@@ -55,22 +67,34 @@
     <t>/challenge/</t>
   </si>
   <si>
+    <t>Challenge Added</t>
+  </si>
+  <si>
     <t>سرویس شما فعال شد. بریم شروع کنیم... .</t>
   </si>
   <si>
     <t>وقتی سرویس خریداری شد</t>
   </si>
   <si>
+    <t>Student Purchased Service</t>
+  </si>
+  <si>
     <t>حیف شد. زمان جواب دادن به درست رو از دست دادی... .</t>
   </si>
   <si>
     <t>وقتی درس ریجکت میشه</t>
   </si>
   <si>
+    <t>Lesson Rejected</t>
+  </si>
+  <si>
     <t>کلی تمرین برای انگلیسی منتظرته. روزی ده دقیقه. همین الان شروع کن.</t>
   </si>
   <si>
-    <t>وقتی 9 تا یا بیشتر درس بی جواب مونده</t>
+    <t>وقتی 10 تا یا بیشتر درس بی جواب مونده</t>
+  </si>
+  <si>
+    <t>Ten Challenges Added</t>
   </si>
   <si>
     <t>یک کوییز جدید منتظرته:)</t>
@@ -80,13 +104,16 @@
   </si>
   <si>
     <t>/quiz/</t>
+  </si>
+  <si>
+    <t>New Quiz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -98,13 +125,24 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Droid Sans Mono&quot;"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,11 +151,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -342,7 +386,8 @@
     <col customWidth="1" min="1" max="1" width="63.43"/>
     <col customWidth="1" min="2" max="2" width="35.14"/>
     <col customWidth="1" min="3" max="3" width="26.43"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="28.0"/>
+    <col customWidth="1" min="5" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -355,93 +400,120 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
